--- a/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -1526,7 +1526,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
